--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="182">
   <si>
     <t>ассоциация</t>
   </si>
@@ -193,9 +193,6 @@
     <t>элемент</t>
   </si>
   <si>
-    <t>супертип</t>
-  </si>
-  <si>
     <t>параметр</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>пылесос</t>
   </si>
   <si>
-    <t>товар</t>
-  </si>
-  <si>
     <t>название</t>
   </si>
   <si>
@@ -238,21 +232,6 @@
     <t>ID айтема</t>
   </si>
   <si>
-    <t>Супертип</t>
-  </si>
-  <si>
-    <t xml:space="preserve">последний непользовательский супертип айтема. Если сам айтем не пользовательский, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">то просто тип этого айтема, например, новость или раздел. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если айтем пользовательский, то берется последний непользовательский супертип </t>
-  </si>
-  <si>
-    <t>одиночное наследование</t>
-  </si>
-  <si>
     <t>Параметр</t>
   </si>
   <si>
@@ -262,42 +241,12 @@
     <t>значение параметра соотвестствующего типа (в своей таблице)</t>
   </si>
   <si>
-    <t>параметр, супертип, значение, элемент</t>
-  </si>
-  <si>
-    <t>для обычных задач поиска и сортировки айтемов при работе CMS</t>
-  </si>
-  <si>
-    <t>Пояснения:</t>
-  </si>
-  <si>
-    <t>При поиске супертип будет иметь либо одно значение (в основном) либо небольшое числе значений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Во всех запросах поиска (для которых создана эта таблица) ВСЕГДА буду без проблем известны </t>
-  </si>
-  <si>
-    <t>В свою очередь ID параметра в пользовательских айтемах эффективно определяет тип айтема.</t>
-  </si>
-  <si>
-    <t>(иногда), которое можно передать в виде списка. Поэтому его подстановка не вызывает проблем.</t>
-  </si>
-  <si>
-    <t>параметр, супертип и значение.</t>
-  </si>
-  <si>
-    <t>в основном для удаления айтема.</t>
-  </si>
-  <si>
     <t xml:space="preserve">В связи с тем, что эта таблица не хранит параметр Показывать, </t>
   </si>
   <si>
     <t>она ВСЕГДА будет использована в связке с таблице Parent</t>
   </si>
   <si>
-    <t xml:space="preserve">по иерархии. Так можно сделать, т.к. у пользовательских типов может быть только </t>
-  </si>
-  <si>
     <t>большой</t>
   </si>
   <si>
@@ -349,12 +298,6 @@
     <t>31 + 100 (max) = 131 байт ~ 120 записей на страницу (min)</t>
   </si>
   <si>
-    <t>Размер: 13 (ПК) + 116 (поля max) - 13 (общее) = 116 байт max</t>
-  </si>
-  <si>
-    <t>~140 записей на страницу (min)</t>
-  </si>
-  <si>
     <t>Таблица Index                         с.2</t>
   </si>
   <si>
@@ -563,6 +506,72 @@
   </si>
   <si>
     <t xml:space="preserve">!!! Для оптимизации скорости  обновления айтемов вместо удаления и последующей вставки </t>
+  </si>
+  <si>
+    <t>телеофн</t>
+  </si>
+  <si>
+    <t>пылесос ГМ</t>
+  </si>
+  <si>
+    <t>телефон SG</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Конкретный тип айтема, например, товар или телефон или телевизор или новость.</t>
+  </si>
+  <si>
+    <t>Хранение типа айтема позволит эффективно использовать пользовательские фильтры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(которые также могут создаваться автомасически). В фильтре конкретизирован тип и </t>
+  </si>
+  <si>
+    <t xml:space="preserve">можно отбросить большинство других айтемов с таким же супертипом при поиске по </t>
+  </si>
+  <si>
+    <t>параметру супертипа, например - сортировка товаров по цене в разделе</t>
+  </si>
+  <si>
+    <t>в основном для удаления айтема. ПК эффективен при вставке, т.к. значения добавляются по возрастанию</t>
+  </si>
+  <si>
+    <t>параметр, значение</t>
+  </si>
+  <si>
+    <t>Размер: 13 (ПК) + 104 (поля max) - 13 (общее) = 104 байт max</t>
+  </si>
+  <si>
+    <t>~150 записей на страницу (min)</t>
+  </si>
+  <si>
+    <t>для обычных задач поиска и сортировки айтемов при работе CMS.</t>
+  </si>
+  <si>
+    <t>если не известен конкретный тип айтема (только супертип), и если у супертипа нет или мало потомков,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">то ID параметра эффективно определит тип или супертип айтема. </t>
+  </si>
+  <si>
+    <t>Т.е. это индекс для непользовательский айтемов</t>
+  </si>
+  <si>
+    <t>3. Поиск по значению (пользовательский)</t>
+  </si>
+  <si>
+    <t>тип, параметр, значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аналогично второму индексу, только в случае если ищутся пользовательские айтемы и существует </t>
+  </si>
+  <si>
+    <t>пользовательский фильтр (созданный вручную или сгенерированный), в котором указан тип айтема</t>
+  </si>
+  <si>
+    <t>Размер: 13 (ПК) + 108 (поля max) - 13 (общее) = 108 байт max</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>2</v>
@@ -1156,28 +1165,28 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1188,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1214,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1240,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1267,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -1293,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>12</v>
@@ -1319,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1345,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1371,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1397,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1423,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1449,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1475,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -1501,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
@@ -1527,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1553,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>30</v>
@@ -1579,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -1605,7 +1614,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -1625,7 +1634,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
@@ -1677,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1703,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
@@ -1729,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>32</v>
@@ -1755,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>11</v>
@@ -1781,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>33</v>
@@ -1807,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>12</v>
@@ -1833,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -1859,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -1885,7 +1894,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -1911,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>34</v>
@@ -1937,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>14</v>
@@ -1963,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
@@ -1989,7 +1998,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>35</v>
@@ -2015,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>15</v>
@@ -2041,7 +2050,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>30</v>
@@ -2067,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>30</v>
@@ -2093,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -2128,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
@@ -2154,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -2180,7 +2189,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>10</v>
@@ -2206,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>32</v>
@@ -2232,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>11</v>
@@ -2258,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>33</v>
@@ -2284,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>12</v>
@@ -2310,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
@@ -2336,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
@@ -2362,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>14</v>
@@ -2388,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>34</v>
@@ -2414,7 +2423,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>14</v>
@@ -2440,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -2466,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -2492,7 +2501,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>15</v>
@@ -2518,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>30</v>
@@ -2544,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>30</v>
@@ -2570,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>30</v>
@@ -2616,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -2642,7 +2651,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -2668,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>10</v>
@@ -2694,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>11</v>
@@ -2720,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>11</v>
@@ -2746,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>12</v>
@@ -2772,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>12</v>
@@ -2798,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -2824,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>13</v>
@@ -2850,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>14</v>
@@ -2876,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>14</v>
@@ -2902,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>14</v>
@@ -2928,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -2954,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>15</v>
@@ -2980,7 +2989,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>15</v>
@@ -3006,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>30</v>
@@ -3032,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>30</v>
@@ -3058,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>30</v>
@@ -3093,7 +3102,7 @@
     </row>
     <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E99" s="12" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F99" s="12"/>
     </row>
@@ -3114,7 +3123,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,7 +3163,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,32 +3173,32 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3223,18 +3232,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3243,7 +3255,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3253,67 +3265,67 @@
         <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3325,14 +3337,14 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
+      <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -3345,70 +3357,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3420,14 +3432,14 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
+      <c r="A11" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -3440,57 +3452,57 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3506,19 +3518,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3527,20 +3543,20 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3551,7 +3567,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3562,7 +3578,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3571,10 +3587,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3582,9 +3595,11 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3593,10 +3608,12 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3604,9 +3621,11 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3615,10 +3634,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3626,10 +3642,10 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3638,28 +3654,34 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3668,8 +3690,8 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
+      <c r="A31" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3679,26 +3701,22 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3706,18 +3724,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3727,7 +3747,9 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3737,33 +3759,29 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3773,9 +3791,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3785,29 +3801,33 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3818,7 +3838,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3829,7 +3849,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3839,9 +3859,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3850,7 +3868,9 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3859,8 +3879,8 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>49</v>
+      <c r="A48" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3871,7 +3891,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3880,174 +3900,163 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E51" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>110</v>
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E50" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="B54" t="s">
-        <v>116</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>112</v>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
+        <v>96</v>
       </c>
       <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>113</v>
-      </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>121</v>
-      </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>123</v>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>124</v>
-      </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>127</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>125</v>
-      </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>128</v>
+      <c r="C71" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>129</v>
+        <v>111</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>130</v>
-      </c>
       <c r="D73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>133</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>177</v>
+      <c r="A76" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4076,53 +4085,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G1" s="12" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G5" s="21">
         <v>42516.673738425925</v>
@@ -4153,19 +4162,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E6" s="22">
         <v>0</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G6" s="23">
         <v>42517</v>
@@ -4176,19 +4185,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E7" s="24">
         <v>64</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G7" s="25">
         <v>42518</v>
@@ -4199,19 +4208,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E8" s="26">
         <v>0</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G8" s="27">
         <v>42519</v>
@@ -4222,19 +4231,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E9" s="22">
         <v>64</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G9" s="23">
         <v>42520</v>
@@ -4245,19 +4254,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G10" s="25">
         <v>42521</v>
@@ -4268,19 +4277,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G11" s="27">
         <v>42522</v>
@@ -4291,19 +4300,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E12" s="22">
         <v>0</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G12" s="23">
         <v>42523</v>
@@ -4314,19 +4323,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G13" s="25">
         <v>42524</v>
@@ -4334,22 +4343,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E14" s="26">
         <v>256</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G14" s="27">
         <v>42525</v>
@@ -4357,22 +4366,22 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E15" s="28">
         <v>768</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G15" s="29">
         <v>42526</v>
@@ -4390,7 +4399,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4400,17 +4409,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="186">
   <si>
     <t>ассоциация</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Когда извлекаются все потомки (типа successor), добавлять критерий Прямой потомок IN (1, 0)</t>
   </si>
   <si>
-    <t>2. Поиск по Второму</t>
-  </si>
-  <si>
     <t>Дополнительно:</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>4 байта</t>
   </si>
   <si>
-    <t>Первый, ассоциация, показывать, супертип второго, прямой потомок, группа, пользователь, второй</t>
-  </si>
-  <si>
     <t xml:space="preserve">                     Таблица Parent (аналог)     с.1</t>
   </si>
   <si>
@@ -430,12 +424,6 @@
     <t xml:space="preserve">                     Таблица Parent (аналог)     с.3</t>
   </si>
   <si>
-    <t>Размер ПК: 28 (поля) + 18 (служеб.) = 46 байта ~ 350 записей на страницу</t>
-  </si>
-  <si>
-    <t>Размер ВК: 28 (ПК) + 9 (поля) - 9 (общее ПК и полей) + 5 (служеб.) = 33 байт ~ 480 записей на страницу</t>
-  </si>
-  <si>
     <t>100 байт</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>Таблица Item  с.1</t>
   </si>
   <si>
-    <t>Второй, показывать, ассоциация, прямой потомок</t>
-  </si>
-  <si>
     <t>из таблицы Item должен быть Вторым (Item.ID = Parent.Второй),  видимым (Parent.Показывать = 1)</t>
   </si>
   <si>
@@ -572,6 +557,33 @@
   </si>
   <si>
     <t>Размер: 13 (ПК) + 108 (поля max) - 13 (общее) = 108 байт max</t>
+  </si>
+  <si>
+    <t>2. Основной индекс</t>
+  </si>
+  <si>
+    <t>1. Первичный ключ (поиск по Второму)</t>
+  </si>
+  <si>
+    <t>Особенности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это ПК, т.к. в этом случае вставка новых записей будет происходить последовательно с ростом </t>
+  </si>
+  <si>
+    <t>AUTOINCREMENT ID второго (потомка)</t>
+  </si>
+  <si>
+    <t>Второй, ассоциация, показывать, прямой потомок, первый</t>
+  </si>
+  <si>
+    <t>Первый, супертип второго, ассоциация, показывать, прямой потомок, группа, пользователь</t>
+  </si>
+  <si>
+    <t>Размер ПК: 19 (поля) + 18 (служеб.) = 37 байта ~ 430 записей на страницу</t>
+  </si>
+  <si>
+    <t>Размер ВК: 19 (ПК) + 20 (поля) - 11 (общее ПК и полей) + 5 (служеб.) = 33 байт ~ 480 записей на страницу</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>2</v>
@@ -1165,28 +1177,28 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1197,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1223,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1249,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1276,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -1302,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>12</v>
@@ -1328,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1354,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1380,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1406,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1432,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1458,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1484,7 +1496,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -1510,7 +1522,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
@@ -1536,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1562,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>30</v>
@@ -1588,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -1614,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -1634,7 +1646,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1660,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
@@ -1686,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1712,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
@@ -1738,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>32</v>
@@ -1764,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>11</v>
@@ -1790,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>33</v>
@@ -1816,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>12</v>
@@ -1842,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>13</v>
@@ -1868,7 +1880,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -1894,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -1920,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>34</v>
@@ -1946,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>14</v>
@@ -1972,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>15</v>
@@ -1998,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>35</v>
@@ -2024,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>15</v>
@@ -2050,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>30</v>
@@ -2076,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>30</v>
@@ -2102,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
@@ -2125,7 +2137,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50" s="12"/>
     </row>
@@ -2137,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
@@ -2163,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -2189,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>10</v>
@@ -2215,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>32</v>
@@ -2241,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>11</v>
@@ -2267,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>33</v>
@@ -2293,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>12</v>
@@ -2319,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
@@ -2345,7 +2357,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
@@ -2371,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>14</v>
@@ -2397,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>34</v>
@@ -2423,7 +2435,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>14</v>
@@ -2449,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -2475,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -2501,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>15</v>
@@ -2527,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>30</v>
@@ -2553,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>30</v>
@@ -2579,7 +2591,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>30</v>
@@ -2625,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -2651,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -2677,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>10</v>
@@ -2703,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>11</v>
@@ -2729,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>11</v>
@@ -2755,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>12</v>
@@ -2781,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>12</v>
@@ -2807,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -2833,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>13</v>
@@ -2859,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>14</v>
@@ -2885,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>14</v>
@@ -2911,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>14</v>
@@ -2937,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -2963,7 +2975,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>15</v>
@@ -2989,7 +3001,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>15</v>
@@ -3015,7 +3027,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>30</v>
@@ -3041,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>30</v>
@@ -3067,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>30</v>
@@ -3102,7 +3114,7 @@
     </row>
     <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E99" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F99" s="12"/>
     </row>
@@ -3118,12 +3130,12 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,95 +3145,110 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="C130" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C127" s="8" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -3255,77 +3282,77 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3338,13 +3365,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -3357,70 +3384,70 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -3433,13 +3460,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -3452,57 +3479,57 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3518,10 +3545,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3531,10 +3558,10 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3545,7 +3572,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3556,7 +3583,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3567,7 +3594,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3578,7 +3605,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3596,10 +3623,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3609,10 +3636,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3622,10 +3649,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3659,7 +3686,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -3667,12 +3694,12 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3691,7 +3718,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3711,12 +3738,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3724,13 +3751,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3748,7 +3775,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3759,7 +3786,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3770,7 +3797,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3781,7 +3808,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3801,12 +3828,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3814,13 +3841,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3838,7 +3865,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3849,7 +3876,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3869,7 +3896,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3880,7 +3907,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3891,7 +3918,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3902,25 +3929,25 @@
     </row>
     <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E50" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1"/>
     </row>
@@ -3928,7 +3955,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3940,22 +3967,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3964,43 +3991,43 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
         <v>102</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4014,38 +4041,38 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4056,7 +4083,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4085,53 +4112,53 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G1" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4139,19 +4166,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G5" s="21">
         <v>42516.673738425925</v>
@@ -4162,19 +4189,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E6" s="22">
         <v>0</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G6" s="23">
         <v>42517</v>
@@ -4185,19 +4212,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7" s="24">
         <v>64</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G7" s="25">
         <v>42518</v>
@@ -4208,19 +4235,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" s="26">
         <v>0</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G8" s="27">
         <v>42519</v>
@@ -4231,19 +4258,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" s="22">
         <v>64</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G9" s="23">
         <v>42520</v>
@@ -4254,19 +4281,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E10" s="24">
         <v>0</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G10" s="25">
         <v>42521</v>
@@ -4277,19 +4304,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G11" s="27">
         <v>42522</v>
@@ -4300,19 +4327,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="23">
         <v>42523</v>
@@ -4323,19 +4350,19 @@
         <v>30</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G13" s="25">
         <v>42524</v>
@@ -4343,22 +4370,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E14" s="26">
         <v>256</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G14" s="27">
         <v>42525</v>
@@ -4366,22 +4393,22 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E15" s="28">
         <v>768</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G15" s="29">
         <v>42526</v>
@@ -4399,7 +4426,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4409,17 +4436,17 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
     <sheet name="Index" sheetId="2" r:id="rId2"/>
     <sheet name="Item" sheetId="3" r:id="rId3"/>
+    <sheet name="Weight" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="193">
   <si>
     <t>ассоциация</t>
   </si>
@@ -475,9 +471,6 @@
     <t>и прямым потомком (Parent.Прямой потомок = 1)</t>
   </si>
   <si>
-    <t>ID, вес</t>
-  </si>
-  <si>
     <t>для обычной загрузки айтемов в процессе нормальной работы CMS</t>
   </si>
   <si>
@@ -584,13 +577,37 @@
   </si>
   <si>
     <t>Размер ВК: 19 (ПК) + 20 (поля) - 11 (общее ПК и полей) + 5 (служеб.) = 33 байт ~ 480 записей на страницу</t>
+  </si>
+  <si>
+    <t>Таблица Weight  с.1</t>
+  </si>
+  <si>
+    <t>родитель</t>
+  </si>
+  <si>
+    <t>ID, родитель, ассоциация, вес</t>
+  </si>
+  <si>
+    <t>Таблицы раньше не было. Таблица используется для сортировки айтемов при следующих условиях:</t>
+  </si>
+  <si>
+    <t>* ассоциация также задана изначально</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После того как загрузились ID айтемов из таблицы PARENT, использовать с заданными в первоначальном </t>
+  </si>
+  <si>
+    <t>* загружается ПРЯМОЙ потомок одного определенного (заданного изначально) родителя (не transitive)</t>
+  </si>
+  <si>
+    <t>запросе ассоциацией и родителем. Использовать только для критерия ORDER BY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -833,6 +850,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -893,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,7 +946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,21 +1123,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1132,7 +1150,7 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1298,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1644,27 +1662,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="8" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2159,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="9" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -2583,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2609,27 +2627,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="9" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="10" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3097,148 +3115,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18.75">
       <c r="E99" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>52</v>
       </c>
@@ -3258,14 +3276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -3276,7 +3294,7 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3287,7 +3305,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
@@ -3306,7 +3324,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
@@ -3325,9 +3343,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
@@ -3344,9 +3362,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -3363,9 +3381,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
@@ -3382,9 +3400,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>56</v>
@@ -3401,9 +3419,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3420,12 +3438,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>57</v>
@@ -3439,12 +3457,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>61</v>
@@ -3458,12 +3476,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>59</v>
@@ -3477,12 +3495,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>75</v>
@@ -3496,12 +3514,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>75</v>
@@ -3515,12 +3533,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>75</v>
@@ -3534,7 +3552,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3543,7 +3561,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3556,12 +3574,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3569,10 +3587,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3580,10 +3598,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3591,10 +3609,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3602,10 +3620,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3613,7 +3631,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3621,7 +3639,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -3634,7 +3652,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -3647,7 +3665,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3660,7 +3678,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3668,7 +3686,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -3679,7 +3697,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3692,7 +3710,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -3705,7 +3723,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3716,9 +3734,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3727,7 +3745,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3736,33 +3754,33 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,9 +3791,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3784,9 +3802,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3795,9 +3813,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3806,9 +3824,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3817,7 +3835,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3826,33 +3844,33 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3863,9 +3881,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3874,9 +3892,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3885,7 +3903,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3894,7 +3912,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -3905,7 +3923,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -3916,7 +3934,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -3927,17 +3945,17 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="18.75">
       <c r="E50" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,13 +3963,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="B54" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
@@ -3962,10 +3980,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -3973,12 +3991,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -3989,22 +4007,22 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="C60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4012,12 +4030,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="C66" t="s">
         <v>104</v>
       </c>
@@ -4025,12 +4043,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="D67" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4039,7 +4057,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -4047,17 +4065,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="B70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="C71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="C72" t="s">
         <v>110</v>
       </c>
@@ -4065,14 +4083,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="D73" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4081,9 +4099,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4093,29 +4111,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G1" s="12" t="s">
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>114</v>
       </c>
@@ -4129,16 +4146,13 @@
         <v>119</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4152,16 +4166,13 @@
         <v>132</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -4174,17 +4185,14 @@
       <c r="D5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="21">
+      <c r="F5" s="21">
         <v>42516.673738425925</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -4197,17 +4205,14 @@
       <c r="D6" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="23">
+      <c r="F6" s="23">
         <v>42517</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
@@ -4220,17 +4225,14 @@
       <c r="D7" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="24">
-        <v>64</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="25">
+      <c r="F7" s="25">
         <v>42518</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
@@ -4243,17 +4245,14 @@
       <c r="D8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="26">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="27">
+      <c r="F8" s="27">
         <v>42519</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
@@ -4266,17 +4265,14 @@
       <c r="D9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="22">
-        <v>64</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="23">
+      <c r="F9" s="23">
         <v>42520</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
@@ -4289,17 +4285,14 @@
       <c r="D10" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="25">
+      <c r="F10" s="25">
         <v>42521</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
@@ -4312,17 +4305,14 @@
       <c r="D11" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="27">
+      <c r="F11" s="27">
         <v>42522</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -4335,17 +4325,14 @@
       <c r="D12" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="23">
+      <c r="F12" s="23">
         <v>42523</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
@@ -4358,17 +4345,14 @@
       <c r="D13" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="24">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="25">
+      <c r="F13" s="25">
         <v>42524</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="26" t="s">
         <v>56</v>
       </c>
@@ -4381,17 +4365,14 @@
       <c r="D14" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="26">
-        <v>256</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="27">
+      <c r="F14" s="27">
         <v>42525</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="28" t="s">
         <v>60</v>
       </c>
@@ -4404,53 +4385,276 @@
       <c r="D15" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="28">
-        <v>768</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="29">
+      <c r="F15" s="29">
         <v>42526</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="H1" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
   <si>
     <t>ассоциация</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>запросе ассоциацией и родителем. Использовать только для критерия ORDER BY</t>
+  </si>
+  <si>
+    <t>защита файлов</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -772,6 +775,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -828,29 +844,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1123,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4112,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4124,35 +4138,39 @@
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G3" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4168,228 +4186,264 @@
       <c r="E4" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="G4" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="28">
         <v>42516.673738425925</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="28">
         <v>42517</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="24" t="s">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="29">
         <v>42518</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="30">
         <v>42519</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="28">
         <v>42520</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="24" t="s">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="29">
         <v>42521</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="26" t="s">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="30">
         <v>42522</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="28">
         <v>42523</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="24" t="s">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="29">
         <v>42524</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="26" t="s">
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="30">
         <v>42525</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="28" t="s">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="31">
         <v>42526</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4429,7 +4483,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4455,16 +4509,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4483,128 +4537,128 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
     </row>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
@@ -13,8 +18,8 @@
     <sheet name="Weight" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="195">
   <si>
     <t>ассоциация</t>
   </si>
@@ -604,13 +609,16 @@
   </si>
   <si>
     <t>защита файлов</t>
+  </si>
+  <si>
+    <t>удален</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,6 +873,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1137,21 +1146,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1164,7 +1173,7 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1321,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1676,27 +1685,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -2138,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75">
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2182,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2381,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2641,27 +2650,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +2800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -2869,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -3025,7 +3034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3129,148 +3138,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75">
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E99" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>52</v>
       </c>
@@ -3290,14 +3299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -3308,7 +3317,7 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3319,7 +3328,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
@@ -3338,7 +3347,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
@@ -3357,7 +3366,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -3376,7 +3385,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -3395,7 +3404,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -3414,7 +3423,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
@@ -3433,7 +3442,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>155</v>
       </c>
@@ -3452,7 +3461,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -3490,7 +3499,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -3509,7 +3518,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -3528,7 +3537,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -3547,7 +3556,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3566,7 +3575,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3575,7 +3584,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3588,7 +3597,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -3601,7 +3610,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>159</v>
@@ -3612,7 +3621,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>160</v>
@@ -3623,7 +3632,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>161</v>
@@ -3634,7 +3643,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>162</v>
@@ -3645,7 +3654,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3653,7 +3662,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -3666,7 +3675,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -3679,7 +3688,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3692,7 +3701,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3700,7 +3709,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3724,7 +3733,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3748,7 +3757,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3759,7 +3768,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3768,7 +3777,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3781,7 +3790,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
@@ -3794,7 +3803,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>167</v>
       </c>
@@ -3816,7 +3825,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>168</v>
       </c>
@@ -3827,7 +3836,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>170</v>
       </c>
@@ -3849,7 +3858,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3858,7 +3867,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
@@ -3871,7 +3880,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>172</v>
       </c>
@@ -3884,7 +3893,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3895,7 +3904,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -3906,7 +3915,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -3917,7 +3926,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3926,7 +3935,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -3937,7 +3946,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -3948,7 +3957,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -3959,17 +3968,17 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E50" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -3977,13 +3986,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
@@ -3994,10 +4003,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -4005,12 +4014,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -4021,22 +4030,22 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4044,12 +4053,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>104</v>
       </c>
@@ -4057,12 +4066,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4071,7 +4080,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -4079,17 +4088,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>110</v>
       </c>
@@ -4097,12 +4106,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -4113,7 +4122,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -4125,29 +4134,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
@@ -4169,8 +4178,11 @@
       <c r="G3" s="27" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H3" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4192,8 +4204,11 @@
       <c r="G4" s="26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -4215,8 +4230,11 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4238,8 +4256,11 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -4261,8 +4282,11 @@
       <c r="G7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -4284,8 +4308,11 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4307,8 +4334,11 @@
       <c r="G9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -4330,8 +4360,11 @@
       <c r="G10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -4353,8 +4386,11 @@
       <c r="G11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -4376,8 +4412,11 @@
       <c r="G12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4399,8 +4438,11 @@
       <c r="G13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>56</v>
       </c>
@@ -4422,8 +4464,11 @@
       <c r="G14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>60</v>
       </c>
@@ -4445,38 +4490,41 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -4488,14 +4536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -4503,12 +4551,12 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H1" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
@@ -4522,7 +4570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4536,7 +4584,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4564,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -4578,7 +4626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -4592,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4606,7 +4654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -4620,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -4634,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -4648,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4662,47 +4710,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>192</v>
       </c>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\V8_EVOLVE\new_relations\DOCS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,8 @@
     <sheet name="Weight" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="196">
   <si>
     <t>ассоциация</t>
   </si>
@@ -612,13 +607,16 @@
   </si>
   <si>
     <t>удален</t>
+  </si>
+  <si>
+    <t>Группа и пользователь относятся ко Второму (т.е. группа второго и пользователь второго)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,21 +1144,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1173,7 +1171,7 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +1319,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1685,183 +1683,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1823,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
@@ -1887,151 +1838,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>22</v>
@@ -2043,137 +1994,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="8" t="s">
         <v>24</v>
       </c>
@@ -2182,7 +2185,7 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="9" t="s">
         <v>7</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2650,27 +2653,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="9" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="10" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3138,148 +3141,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18.75">
       <c r="E99" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
@@ -3287,26 +3290,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
@@ -3317,7 +3320,7 @@
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3328,7 +3331,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
@@ -3347,7 +3350,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
@@ -3366,7 +3369,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -3404,7 +3407,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -3423,7 +3426,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
@@ -3442,7 +3445,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
         <v>155</v>
       </c>
@@ -3461,7 +3464,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -3480,7 +3483,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -3499,7 +3502,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -3518,7 +3521,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -3537,7 +3540,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
@@ -3556,7 +3559,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3584,7 +3587,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -3597,7 +3600,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -3610,7 +3613,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>159</v>
@@ -3621,7 +3624,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>160</v>
@@ -3632,7 +3635,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>161</v>
@@ -3643,7 +3646,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>162</v>
@@ -3654,7 +3657,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3662,7 +3665,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -3688,7 +3691,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -3701,7 +3704,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3709,7 +3712,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -3733,7 +3736,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -3746,7 +3749,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -3757,7 +3760,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3768,7 +3771,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3777,7 +3780,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3790,7 +3793,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
@@ -3803,7 +3806,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -3814,7 +3817,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>167</v>
       </c>
@@ -3825,7 +3828,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>168</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>169</v>
       </c>
@@ -3847,7 +3850,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>170</v>
       </c>
@@ -3858,7 +3861,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3867,7 +3870,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>172</v>
       </c>
@@ -3893,7 +3896,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3904,7 +3907,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -3926,7 +3929,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3935,7 +3938,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -3957,7 +3960,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -3968,17 +3971,17 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="18.75">
       <c r="E50" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
@@ -3986,13 +3989,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="B54" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" t="s">
@@ -4003,10 +4006,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -4014,12 +4017,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -4030,22 +4033,22 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="C60" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -4053,12 +4056,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="B65" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="C66" t="s">
         <v>104</v>
       </c>
@@ -4066,12 +4069,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="D67" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4080,7 +4083,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -4088,17 +4091,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="B70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="C71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="C72" t="s">
         <v>110</v>
       </c>
@@ -4106,12 +4109,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="D73" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
@@ -4122,7 +4125,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -4134,14 +4137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
@@ -4151,12 +4154,12 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="F1" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
         <v>56</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
       <c r="A15" s="23" t="s">
         <v>60</v>
       </c>
@@ -4494,37 +4497,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -4536,14 +4539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
@@ -4551,12 +4554,12 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="H1" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>114</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4710,47 +4713,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>192</v>
       </c>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -570,9 +570,6 @@
     <t>Второй, ассоциация, показывать, прямой потомок, первый</t>
   </si>
   <si>
-    <t>Первый, супертип второго, ассоциация, показывать, прямой потомок, группа, пользователь</t>
-  </si>
-  <si>
     <t>Размер ПК: 19 (поля) + 18 (служеб.) = 37 байта ~ 430 записей на страницу</t>
   </si>
   <si>
@@ -609,7 +606,10 @@
     <t>удален</t>
   </si>
   <si>
-    <t>Группа и пользователь относятся ко Второму (т.е. группа второго и пользователь второго)</t>
+    <t>Первый, ассоциация, супертип второго, показывать, прямой потомок, группа, пользователь</t>
+  </si>
+  <si>
+    <t>Группа, пользователь и показывать относятся ко Второму (т.е. группа второго и пользователь второго)</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -3264,12 +3264,12 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -4141,17 +4141,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -4179,10 +4181,10 @@
         <v>122</v>
       </c>
       <c r="G3" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
@@ -4556,7 +4558,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="H1" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1">
@@ -4567,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>120</v>
@@ -4715,17 +4717,17 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4740,7 +4742,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4750,12 +4752,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
@@ -10,11 +10,10 @@
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
     <sheet name="Index" sheetId="2" r:id="rId2"/>
     <sheet name="Item" sheetId="3" r:id="rId3"/>
-    <sheet name="Weight" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
   <si>
     <t>ассоциация</t>
   </si>
@@ -153,9 +152,6 @@
     <t>Использовать:</t>
   </si>
   <si>
-    <t>для обычной загрузки айтемов по критерию предка в процессе нормальной работы CMS</t>
-  </si>
-  <si>
     <t>Когда не задана явно ассоциация, подставлять весь список ассоциаций, т.к. их не должно быть много</t>
   </si>
   <si>
@@ -216,9 +212,6 @@
     <t>Samsumg Galaxy</t>
   </si>
   <si>
-    <t>Таблица Index                         с.1</t>
-  </si>
-  <si>
     <t>Элемент</t>
   </si>
   <si>
@@ -258,18 +251,9 @@
     <t>красивый</t>
   </si>
   <si>
-    <t>порядковый№</t>
-  </si>
-  <si>
-    <t>порядковый номер значения параметра, как он хранится в айтеме</t>
-  </si>
-  <si>
     <t>2. Поиск по значению (основной)</t>
   </si>
   <si>
-    <t>элемент, параметр, порядковый№</t>
-  </si>
-  <si>
     <t>1 байт</t>
   </si>
   <si>
@@ -282,18 +266,12 @@
     <t>всего 24 байта на запись, нет NULL</t>
   </si>
   <si>
-    <t>Размер: 13 (поля) + 18 (служеб.) = 31 байта</t>
-  </si>
-  <si>
     <t>8 - 100 байт</t>
   </si>
   <si>
     <t>31 + 100 (max) = 131 байт ~ 120 записей на страницу (min)</t>
   </si>
   <si>
-    <t>Таблица Index                         с.2</t>
-  </si>
-  <si>
     <t>Список индексных таблиц</t>
   </si>
   <si>
@@ -576,47 +554,74 @@
     <t>Размер ВК: 19 (ПК) + 20 (поля) - 11 (общее ПК и полей) + 5 (служеб.) = 33 байт ~ 480 записей на страницу</t>
   </si>
   <si>
-    <t>Таблица Weight  с.1</t>
-  </si>
-  <si>
-    <t>родитель</t>
-  </si>
-  <si>
-    <t>ID, родитель, ассоциация, вес</t>
-  </si>
-  <si>
-    <t>Таблицы раньше не было. Таблица используется для сортировки айтемов при следующих условиях:</t>
-  </si>
-  <si>
-    <t>* ассоциация также задана изначально</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После того как загрузились ID айтемов из таблицы PARENT, использовать с заданными в первоначальном </t>
-  </si>
-  <si>
-    <t>* загружается ПРЯМОЙ потомок одного определенного (заданного изначально) родителя (не transitive)</t>
-  </si>
-  <si>
-    <t>запросе ассоциацией и родителем. Использовать только для критерия ORDER BY</t>
-  </si>
-  <si>
     <t>защита файлов</t>
   </si>
   <si>
     <t>удален</t>
   </si>
   <si>
-    <t>Первый, ассоциация, супертип второго, показывать, прямой потомок, группа, пользователь</t>
-  </si>
-  <si>
     <t>Группа, пользователь и показывать относятся ко Второму (т.е. группа второго и пользователь второго)</t>
+  </si>
+  <si>
+    <t>Таблица Index             с.1</t>
+  </si>
+  <si>
+    <t>Таблица Index             с.2</t>
+  </si>
+  <si>
+    <t>элемент, параметр, значение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер: 13 (поля) + 18 (служеб.) = 31 байта </t>
+  </si>
+  <si>
+    <t>! не правильно</t>
+  </si>
+  <si>
+    <t>(для того, чтобы это было так, нужно перед вставкой сортировать параметры по ID и значению)</t>
+  </si>
+  <si>
+    <t>также используется при сортировке, когда ID айтемов для сортировки уже известны</t>
+  </si>
+  <si>
+    <t>2. Поиск по типу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для загрузки одиночных айтемов или айтемов, которых не много, без указания родителя, но с </t>
+  </si>
+  <si>
+    <t>заданным типом (например, загрузка айтема каталога продукции)</t>
+  </si>
+  <si>
+    <t>4  байта</t>
+  </si>
+  <si>
+    <t>Первый, ассоциация, супертип второго, показывать, прямой потомок, группа, пользователь, вес</t>
+  </si>
+  <si>
+    <t>1) для обычной загрузки айтемов по критерию предка в процессе нормальной работы CMS</t>
+  </si>
+  <si>
+    <t>2) для сортировки результатов по весу, когда айтемы извлекаются нетранзитивно (прямые потомки)</t>
+  </si>
+  <si>
+    <t>Колонка Вес заполняется только для прямых потомков. Для непрямых потомков она всегда равна 0.</t>
+  </si>
+  <si>
+    <t>3. Поиск максимального веса</t>
+  </si>
+  <si>
+    <t>Первый, ассоциация, вес</t>
+  </si>
+  <si>
+    <t>для поиска максимального веса прямых потомков предка при создании новых ассоциаций</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +660,22 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -664,7 +685,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -794,11 +815,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -872,6 +917,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1144,21 +1207,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -1171,7 +1234,7 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,10 +1248,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>2</v>
@@ -1210,37 +1273,43 @@
       <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I3" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1265,8 +1334,11 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1291,8 +1363,11 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="I6" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1317,9 +1392,12 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
@@ -1344,8 +1422,11 @@
       <c r="H8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1434,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>12</v>
@@ -1370,8 +1451,11 @@
       <c r="H9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
@@ -1396,8 +1480,11 @@
       <c r="H10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
@@ -1422,8 +1509,11 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1448,8 +1538,11 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1474,8 +1567,11 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1500,8 +1596,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1526,8 +1625,11 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -1552,8 +1654,11 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
@@ -1578,8 +1683,11 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -1604,8 +1712,11 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1613,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>30</v>
@@ -1630,8 +1741,11 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>30</v>
@@ -1656,8 +1770,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -1682,33 +1799,36 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -1734,7 +1854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1760,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +1888,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>10</v>
@@ -1786,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>32</v>
@@ -1812,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>11</v>
@@ -1838,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
@@ -1846,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>33</v>
@@ -1864,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>12</v>
@@ -1890,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -1898,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>13</v>
@@ -1916,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1924,7 +2044,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -1942,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>14</v>
@@ -1968,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -1976,7 +2096,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>34</v>
@@ -1994,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +2122,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>14</v>
@@ -2020,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>15</v>
@@ -2046,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>35</v>
@@ -2072,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>15</v>
@@ -2098,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2226,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>30</v>
@@ -2124,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>30</v>
@@ -2150,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
@@ -2176,16 +2296,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75">
+    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
@@ -2211,7 +2331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -2237,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -2245,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>10</v>
@@ -2263,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>32</v>
@@ -2289,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>11</v>
@@ -2315,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
@@ -2323,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>33</v>
@@ -2341,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>12</v>
@@ -2367,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>13</v>
@@ -2393,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>13</v>
@@ -2419,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>14</v>
@@ -2445,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2573,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>34</v>
@@ -2471,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>14</v>
@@ -2497,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
@@ -2523,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -2549,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2677,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>15</v>
@@ -2575,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -2583,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>30</v>
@@ -2601,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>30</v>
@@ -2627,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>30</v>
@@ -2653,27 +2773,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1">
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -2699,7 +2819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -2725,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>7</v>
       </c>
@@ -2733,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>10</v>
@@ -2751,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>11</v>
@@ -2777,7 +2897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>11</v>
@@ -2803,7 +2923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>12</v>
@@ -2829,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2957,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>12</v>
@@ -2855,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>13</v>
@@ -2881,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +3009,7 @@
         <v>8</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>13</v>
@@ -2907,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -2915,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>14</v>
@@ -2933,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>14</v>
@@ -2959,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +3087,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>14</v>
@@ -2985,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -2993,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -3011,7 +3131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>15</v>
@@ -3037,7 +3157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3165,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>15</v>
@@ -3063,7 +3183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -3071,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>30</v>
@@ -3089,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>30</v>
@@ -3115,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>30</v>
@@ -3141,158 +3261,188 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.75">
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E99" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F99" s="12"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
+      <c r="C138" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="8" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>52</v>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3302,849 +3452,779 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
       <c r="E1" s="12" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="B3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>200</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D11" s="3">
+        <v>599.99</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>599.99</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="34" t="s">
+        <v>184</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
-        <v>40</v>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="33" t="s">
+        <v>183</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
+      <c r="D28" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>165</v>
+      <c r="D33" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="D34" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="33" t="s">
+        <v>159</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="D42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>70</v>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="18.75">
-      <c r="E50" s="12" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E51" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="B54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
+      <c r="D67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="C60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="B65" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="C66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="D67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="C71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="C72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="D73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>152</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -4156,78 +4236,78 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F5" s="28">
         <v>42516.673738425925</v>
@@ -4239,21 +4319,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F6" s="28">
         <v>42517</v>
@@ -4265,21 +4345,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F7" s="29">
         <v>42518</v>
@@ -4291,21 +4371,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="F8" s="30">
         <v>42519</v>
@@ -4317,21 +4397,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F9" s="28">
         <v>42520</v>
@@ -4343,21 +4423,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F10" s="29">
         <v>42521</v>
@@ -4369,21 +4449,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F11" s="30">
         <v>42522</v>
@@ -4395,21 +4475,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F12" s="28">
         <v>42523</v>
@@ -4421,21 +4501,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F13" s="29">
         <v>42524</v>
@@ -4447,21 +4527,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F14" s="30">
         <v>42525</v>
@@ -4473,21 +4553,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F15" s="31">
         <v>42526</v>
@@ -4499,265 +4579,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="H1" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="21">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/all_tables.xlsx
+++ b/DOCS/all_tables.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parent" sheetId="1" r:id="rId1"/>
     <sheet name="Index" sheetId="2" r:id="rId2"/>
     <sheet name="Item" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="230">
   <si>
     <t>ассоциация</t>
   </si>
@@ -615,6 +616,102 @@
   </si>
   <si>
     <t>для поиска максимального веса прямых потомков предка при создании новых ассоциаций</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>каталог</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>телефоны</t>
+  </si>
+  <si>
+    <t>самсунг</t>
+  </si>
+  <si>
+    <t>холодильники</t>
+  </si>
+  <si>
+    <t>атлант</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>С7</t>
+  </si>
+  <si>
+    <t>галерея С</t>
+  </si>
+  <si>
+    <t>галерея А</t>
+  </si>
+  <si>
+    <t>изображение С</t>
+  </si>
+  <si>
+    <t>изоражение А</t>
+  </si>
+  <si>
+    <t>ItemParent</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>гс</t>
+  </si>
+  <si>
+    <t>га</t>
+  </si>
+  <si>
+    <t>ис</t>
+  </si>
+  <si>
+    <t>иа</t>
+  </si>
+  <si>
+    <t>с7</t>
+  </si>
+  <si>
+    <t>а1</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>assoc</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>умолч</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>иер</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1217,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
@@ -3455,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -4643,4 +4740,443 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>